--- a/tools/跑道编码.xlsx
+++ b/tools/跑道编码.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B28A2AA-D5A7-4BDC-9B77-3EE95548D2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9021F410-3D1B-4085-8613-E509C4798667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="1956" windowWidth="13068" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -727,6 +727,7 @@
         <v>45</v>
       </c>
     </row>
+    <row r="10" spans="1:10" ht="7.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
